--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Myoc</t>
+  </si>
+  <si>
+    <t>Fzd3</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Myoc</t>
-  </si>
-  <si>
-    <t>Fzd3</t>
   </si>
 </sst>
 </file>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.2439023333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.731707</v>
+      </c>
+      <c r="I2">
+        <v>0.006368708152767561</v>
+      </c>
+      <c r="J2">
+        <v>0.006368708152767561</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.9392963333333334</v>
-      </c>
-      <c r="H2">
-        <v>2.817889</v>
-      </c>
-      <c r="I2">
-        <v>0.02351740654579802</v>
-      </c>
-      <c r="J2">
-        <v>0.02351740654579801</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.2767476666666667</v>
+        <v>0.3251496666666667</v>
       </c>
       <c r="N2">
-        <v>0.8302430000000001</v>
+        <v>0.975449</v>
       </c>
       <c r="O2">
-        <v>0.1013437297028556</v>
+        <v>0.07121046526627427</v>
       </c>
       <c r="P2">
-        <v>0.1013437297028556</v>
+        <v>0.07121046526627427</v>
       </c>
       <c r="Q2">
-        <v>0.2599480685585556</v>
+        <v>0.07930476238255556</v>
       </c>
       <c r="R2">
-        <v>2.339532617027</v>
+        <v>0.713742861443</v>
       </c>
       <c r="S2">
-        <v>0.002383341692289521</v>
+        <v>0.0004535186707036922</v>
       </c>
       <c r="T2">
-        <v>0.002383341692289521</v>
+        <v>0.0004535186707036922</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9392963333333334</v>
+        <v>0.2439023333333333</v>
       </c>
       <c r="H3">
-        <v>2.817889</v>
+        <v>0.731707</v>
       </c>
       <c r="I3">
-        <v>0.02351740654579802</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="J3">
-        <v>0.02351740654579801</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.023459</v>
       </c>
       <c r="O3">
-        <v>0.3690589522147927</v>
+        <v>0.2207208394324094</v>
       </c>
       <c r="P3">
-        <v>0.3690589522147927</v>
+        <v>0.2207208394324094</v>
       </c>
       <c r="Q3">
-        <v>0.9466413175612222</v>
+        <v>0.2458095682792222</v>
       </c>
       <c r="R3">
-        <v>8.519771858051</v>
+        <v>2.212286114513</v>
       </c>
       <c r="S3">
-        <v>0.008679309418601523</v>
+        <v>0.001405706609578885</v>
       </c>
       <c r="T3">
-        <v>0.008679309418601521</v>
+        <v>0.001405706609578885</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9392963333333334</v>
+        <v>0.2439023333333333</v>
       </c>
       <c r="H4">
-        <v>2.817889</v>
+        <v>0.731707</v>
       </c>
       <c r="I4">
-        <v>0.02351740654579802</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="J4">
-        <v>0.02351740654579801</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,90 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.446215</v>
+        <v>3.226895</v>
       </c>
       <c r="N4">
-        <v>4.338645</v>
+        <v>9.680685</v>
       </c>
       <c r="O4">
-        <v>0.5295973180823518</v>
+        <v>0.7067166842615477</v>
       </c>
       <c r="P4">
-        <v>0.5295973180823517</v>
+        <v>0.7067166842615475</v>
       </c>
       <c r="Q4">
-        <v>1.358424446711667</v>
+        <v>0.7870472199216667</v>
       </c>
       <c r="R4">
-        <v>12.225820020405</v>
+        <v>7.083424979295001</v>
       </c>
       <c r="S4">
-        <v>0.01245475543490697</v>
+        <v>0.004500872308753377</v>
       </c>
       <c r="T4">
-        <v>0.01245475543490697</v>
+        <v>0.004500872308753377</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>37.428193</v>
+        <v>0.2439023333333333</v>
       </c>
       <c r="H5">
-        <v>112.284579</v>
+        <v>0.731707</v>
       </c>
       <c r="I5">
-        <v>0.937099400709813</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="J5">
-        <v>0.937099400709813</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2767476666666667</v>
+        <v>0.006173333333333333</v>
       </c>
       <c r="N5">
-        <v>0.8302430000000001</v>
+        <v>0.01852</v>
       </c>
       <c r="O5">
-        <v>0.1013437297028556</v>
+        <v>0.001352011039768762</v>
       </c>
       <c r="P5">
-        <v>0.1013437297028556</v>
+        <v>0.001352011039768762</v>
       </c>
       <c r="Q5">
-        <v>10.35816508029967</v>
+        <v>0.001505690404444444</v>
       </c>
       <c r="R5">
-        <v>93.22348572269702</v>
+        <v>0.01355121364</v>
       </c>
       <c r="S5">
-        <v>0.09496914837024327</v>
+        <v>8.610563731607063E-06</v>
       </c>
       <c r="T5">
-        <v>0.09496914837024327</v>
+        <v>8.610563731607062E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>112.284579</v>
       </c>
       <c r="I6">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029397</v>
       </c>
       <c r="J6">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029399</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.007819666666667</v>
+        <v>0.3251496666666667</v>
       </c>
       <c r="N6">
-        <v>3.023459</v>
+        <v>0.975449</v>
       </c>
       <c r="O6">
-        <v>0.3690589522147927</v>
+        <v>0.07121046526627427</v>
       </c>
       <c r="P6">
-        <v>0.3690589522147927</v>
+        <v>0.07121046526627427</v>
       </c>
       <c r="Q6">
-        <v>37.72086899319567</v>
+        <v>12.16976447788567</v>
       </c>
       <c r="R6">
-        <v>339.487820938761</v>
+        <v>109.527880300971</v>
       </c>
       <c r="S6">
-        <v>0.3458449229470738</v>
+        <v>0.06959500593626097</v>
       </c>
       <c r="T6">
-        <v>0.3458449229470738</v>
+        <v>0.06959500593626099</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>112.284579</v>
       </c>
       <c r="I7">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029397</v>
       </c>
       <c r="J7">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029399</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,60 +865,60 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.446215</v>
+        <v>1.007819666666667</v>
       </c>
       <c r="N7">
-        <v>4.338645</v>
+        <v>3.023459</v>
       </c>
       <c r="O7">
-        <v>0.5295973180823518</v>
+        <v>0.2207208394324094</v>
       </c>
       <c r="P7">
-        <v>0.5295973180823517</v>
+        <v>0.2207208394324094</v>
       </c>
       <c r="Q7">
-        <v>54.12921413949499</v>
+        <v>37.72086899319567</v>
       </c>
       <c r="R7">
-        <v>487.162927255455</v>
+        <v>339.487820938761</v>
       </c>
       <c r="S7">
-        <v>0.4962853293924961</v>
+        <v>0.2157136324431535</v>
       </c>
       <c r="T7">
-        <v>0.496285329392496</v>
+        <v>0.2157136324431535</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.512001666666667</v>
+        <v>37.428193</v>
       </c>
       <c r="H8">
-        <v>4.536005</v>
+        <v>112.284579</v>
       </c>
       <c r="I8">
-        <v>0.03785637889880422</v>
+        <v>0.9773142989029397</v>
       </c>
       <c r="J8">
-        <v>0.03785637889880422</v>
+        <v>0.9773142989029399</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,90 +927,90 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2767476666666667</v>
+        <v>3.226895</v>
       </c>
       <c r="N8">
-        <v>0.8302430000000001</v>
+        <v>9.680685</v>
       </c>
       <c r="O8">
-        <v>0.1013437297028556</v>
+        <v>0.7067166842615477</v>
       </c>
       <c r="P8">
-        <v>0.1013437297028556</v>
+        <v>0.7067166842615475</v>
       </c>
       <c r="Q8">
-        <v>0.4184429332461111</v>
+        <v>120.776848850735</v>
       </c>
       <c r="R8">
-        <v>3.765986399215</v>
+        <v>1086.991639656615</v>
       </c>
       <c r="S8">
-        <v>0.003836506630649302</v>
+        <v>0.6906843208020846</v>
       </c>
       <c r="T8">
-        <v>0.003836506630649302</v>
+        <v>0.6906843208020846</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>37.428193</v>
+      </c>
+      <c r="H9">
+        <v>112.284579</v>
+      </c>
+      <c r="I9">
+        <v>0.9773142989029397</v>
+      </c>
+      <c r="J9">
+        <v>0.9773142989029399</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>1.512001666666667</v>
-      </c>
-      <c r="H9">
-        <v>4.536005</v>
-      </c>
-      <c r="I9">
-        <v>0.03785637889880422</v>
-      </c>
-      <c r="J9">
-        <v>0.03785637889880422</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>1.007819666666667</v>
+        <v>0.006173333333333333</v>
       </c>
       <c r="N9">
-        <v>3.023459</v>
+        <v>0.01852</v>
       </c>
       <c r="O9">
-        <v>0.3690589522147927</v>
+        <v>0.001352011039768762</v>
       </c>
       <c r="P9">
-        <v>0.3690589522147927</v>
+        <v>0.001352011039768762</v>
       </c>
       <c r="Q9">
-        <v>1.523825015699444</v>
+        <v>0.2310567114533333</v>
       </c>
       <c r="R9">
-        <v>13.714425141295</v>
+        <v>2.07951040308</v>
       </c>
       <c r="S9">
-        <v>0.01397123553103887</v>
+        <v>0.001321339721440642</v>
       </c>
       <c r="T9">
-        <v>0.01397123553103887</v>
+        <v>0.001321339721440642</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,93 +1018,93 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.512001666666667</v>
+        <v>0.6248916666666666</v>
       </c>
       <c r="H10">
-        <v>4.536005</v>
+        <v>1.874675</v>
       </c>
       <c r="I10">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="J10">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.446215</v>
+        <v>0.3251496666666667</v>
       </c>
       <c r="N10">
-        <v>4.338645</v>
+        <v>0.975449</v>
       </c>
       <c r="O10">
-        <v>0.5295973180823518</v>
+        <v>0.07121046526627427</v>
       </c>
       <c r="P10">
-        <v>0.5295973180823517</v>
+        <v>0.07121046526627427</v>
       </c>
       <c r="Q10">
-        <v>2.186679490358333</v>
+        <v>0.2031833171194444</v>
       </c>
       <c r="R10">
-        <v>19.680115413225</v>
+        <v>1.828649854075</v>
       </c>
       <c r="S10">
-        <v>0.02004863673711605</v>
+        <v>0.001161940659309593</v>
       </c>
       <c r="T10">
-        <v>0.02004863673711604</v>
+        <v>0.001161940659309593</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.06098166666666666</v>
+        <v>0.6248916666666666</v>
       </c>
       <c r="H11">
-        <v>0.182945</v>
+        <v>1.874675</v>
       </c>
       <c r="I11">
-        <v>0.001526813845584769</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="J11">
-        <v>0.001526813845584768</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,60 +1113,60 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2767476666666667</v>
+        <v>1.007819666666667</v>
       </c>
       <c r="N11">
-        <v>0.8302430000000001</v>
+        <v>3.023459</v>
       </c>
       <c r="O11">
-        <v>0.1013437297028556</v>
+        <v>0.2207208394324094</v>
       </c>
       <c r="P11">
-        <v>0.1013437297028556</v>
+        <v>0.2207208394324094</v>
       </c>
       <c r="Q11">
-        <v>0.01687653395944444</v>
+        <v>0.6297781112027777</v>
       </c>
       <c r="R11">
-        <v>0.151888805635</v>
+        <v>5.668003000824999</v>
       </c>
       <c r="S11">
-        <v>0.0001547330096735203</v>
+        <v>0.00360150037967697</v>
       </c>
       <c r="T11">
-        <v>0.0001547330096735203</v>
+        <v>0.00360150037967697</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.06098166666666666</v>
+        <v>0.6248916666666666</v>
       </c>
       <c r="H12">
-        <v>0.182945</v>
+        <v>1.874675</v>
       </c>
       <c r="I12">
-        <v>0.001526813845584769</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="J12">
-        <v>0.001526813845584768</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,90 +1175,90 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.007819666666667</v>
+        <v>3.226895</v>
       </c>
       <c r="N12">
-        <v>3.023459</v>
+        <v>9.680685</v>
       </c>
       <c r="O12">
-        <v>0.3690589522147927</v>
+        <v>0.7067166842615477</v>
       </c>
       <c r="P12">
-        <v>0.3690589522147927</v>
+        <v>0.7067166842615475</v>
       </c>
       <c r="Q12">
-        <v>0.06145852297277777</v>
+        <v>2.016459794708334</v>
       </c>
       <c r="R12">
-        <v>0.553126706755</v>
+        <v>18.148138152375</v>
       </c>
       <c r="S12">
-        <v>0.0005634843180785529</v>
+        <v>0.01153149115070956</v>
       </c>
       <c r="T12">
-        <v>0.0005634843180785529</v>
+        <v>0.01153149115070955</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6248916666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.874675</v>
+      </c>
+      <c r="I13">
+        <v>0.01631699294429263</v>
+      </c>
+      <c r="J13">
+        <v>0.01631699294429263</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.06098166666666666</v>
-      </c>
-      <c r="H13">
-        <v>0.182945</v>
-      </c>
-      <c r="I13">
-        <v>0.001526813845584769</v>
-      </c>
-      <c r="J13">
-        <v>0.001526813845584768</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>1.446215</v>
+        <v>0.006173333333333333</v>
       </c>
       <c r="N13">
-        <v>4.338645</v>
+        <v>0.01852</v>
       </c>
       <c r="O13">
-        <v>0.5295973180823518</v>
+        <v>0.001352011039768762</v>
       </c>
       <c r="P13">
-        <v>0.5295973180823517</v>
+        <v>0.001352011039768762</v>
       </c>
       <c r="Q13">
-        <v>0.08819260105833332</v>
+        <v>0.003857664555555555</v>
       </c>
       <c r="R13">
-        <v>0.7937334095249999</v>
+        <v>0.034718981</v>
       </c>
       <c r="S13">
-        <v>0.0008085965178326954</v>
+        <v>2.206075459651263E-05</v>
       </c>
       <c r="T13">
-        <v>0.0008085965178326951</v>
+        <v>2.206075459651263E-05</v>
       </c>
     </row>
   </sheetData>
